--- a/src/main/resources/templates/带价格的模板.xlsx
+++ b/src/main/resources/templates/带价格的模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wtq/Desktop/self/202404-distribution-admin-be/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90941\Desktop\wtq\20240405sellStatic\be\seller-admin\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685598B-4161-4442-AAEA-3A16C303B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74244754-4647-46F8-9FB6-9C93AADC36B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,13 +233,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -250,18 +355,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,7 +376,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,132 +716,148 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="C10" sqref="C10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:F11"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
